--- a/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/output.xlsx
+++ b/WinFormsApp1/WinFormsApp1/bin/Debug/net8.0-windows/output.xlsx
@@ -436,351 +436,351 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>project_name</t>
+          <t>first_name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>last_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>project_end_date</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>task_name</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>executor_name</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>task_link_project</t>
+          <t>project_status</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Создание веб-сайта</t>
+          <t>Иван</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Иванов</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ivan.ivanov@example.com</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>2023-03-15T00:00:00</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Дизайн главной страницы</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Иван Иванов, email: ivan.ivanov@example.com</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Создание веб-сайта status: активен</t>
+          <t>активен</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Создание веб-сайта</t>
+          <t>Иван</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Иванов</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ivan.ivanov@example.com</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>2023-03-15T00:00:00</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Дизайн главной страницы</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Иван Иванов, email: ivan.ivanov@example.com</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Создание веб-сайта status: активен</t>
+          <t>активен</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Разработка мобильного приложения</t>
+          <t>Алексей</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Сидоров</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>aleksey.sidorov@example.com</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>2023-05-30T00:00:00</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Проверка и исправление ошибок</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Алексей Сидоров, email: aleksey.sidorov@example.com</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Разработка мобильного приложения status: активен</t>
+          <t>активен</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Разработка мобильного приложения</t>
+          <t>Мария</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Петрова</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>maria.petrov@example.com</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>2023-05-30T00:00:00</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Сборка и тестирование приложения</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Мария Петрова, email: maria.petrov@example.com</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Разработка мобильного приложения status: активен</t>
+          <t>активен</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Разработка мобильного приложения</t>
+          <t>Алексей</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Сидоров</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>aleksey.sidorov@example.com</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>2023-05-30T00:00:00</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Проверка и исправление ошибок</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Алексей Сидоров, email: aleksey.sidorov@example.com</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Разработка мобильного приложения status: активен</t>
+          <t>активен</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Разработка мобильного приложения</t>
+          <t>Мария</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Петрова</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>maria.petrov@example.com</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>2023-05-30T00:00:00</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Сборка и тестирование приложения</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Мария Петрова, email: maria.petrov@example.com</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Разработка мобильного приложения status: активен</t>
+          <t>активен</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Разработка мобильного приложения</t>
+          <t>Алексей</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Сидоров</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>aleksey.sidorov@example.com</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>2023-05-30T00:00:00</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Проверка и исправление ошибок</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Алексей Сидоров, email: aleksey.sidorov@example.com</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Разработка мобильного приложения status: активен</t>
+          <t>активен</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Разработка мобильного приложения</t>
+          <t>Мария</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Петрова</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>maria.petrov@example.com</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>2023-05-30T00:00:00</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Сборка и тестирование приложения</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Мария Петрова, email: maria.petrov@example.com</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Разработка мобильного приложения status: активен</t>
+          <t>активен</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Разработка мобильного приложения</t>
+          <t>Алексей</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Сидоров</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>aleksey.sidorov@example.com</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>2023-05-30T00:00:00</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Проверка и исправление ошибок</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Алексей Сидоров, email: aleksey.sidorov@example.com</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Разработка мобильного приложения status: активен</t>
+          <t>активен</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Разработка мобильного приложения</t>
+          <t>Мария</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Петрова</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>maria.petrov@example.com</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>2023-05-30T00:00:00</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Сборка и тестирование приложения</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Мария Петрова, email: maria.petrov@example.com</t>
-        </is>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Разработка мобильного приложения status: активен</t>
+          <t>активен</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Обновление корпоративной базы данных</t>
+          <t>Анна</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Николаева</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>anna.nikolaeva@example.com</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>2023-04-15T00:00:00</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Оптимизация запросов к базе данных</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Анна Николаева, email: anna.nikolaeva@example.com</t>
-        </is>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Обновление корпоративной базы данных status: завершен</t>
+          <t>завершен</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Обновление корпоративной базы данных</t>
+          <t>Анна</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Николаева</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>anna.nikolaeva@example.com</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>2023-04-15T00:00:00</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Оптимизация запросов к базе данных</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Анна Николаева, email: anna.nikolaeva@example.com</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Обновление корпоративной базы данных status: завершен</t>
+          <t>завершен</t>
         </is>
       </c>
     </row>
